--- a/work/IT1Glied.xlsx
+++ b/work/IT1Glied.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbantle/Documents/GitHub/balanceboy/work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62004229-92F6-A246-B9BA-477703FD52E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69574321-B4B2-174E-8F07-81BC223AED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2D9EB2CB-DEEC-4840-9A75-2CCAA9FCB578}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1541,6 +1541,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>t[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1605,6 +1660,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1654,47 +1764,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.89694050654428015"/>
-          <c:y val="0.24028164740308144"/>
-          <c:w val="0.10090361214131334"/>
-          <c:h val="0.1277057115660061"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3421,13 +3490,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>407739</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47743</xdr:rowOff>
+      <xdr:colOff>407740</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>248271</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293078</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>178469</xdr:rowOff>
     </xdr:to>
@@ -3456,64 +3525,144 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>458347</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114585</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>538277</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8012</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1260451" cy="264431"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Textfeld 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9809600-76A2-EB59-7A9D-8DB16C66441E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11706918" y="3724059"/>
-          <a:ext cx="1260451" cy="264431"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>x(t)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> = 704x-33,638</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:ext cx="1260451" cy="264560"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Textfeld 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9809600-76A2-EB59-7A9D-8DB16C66441E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11017997" y="4093327"/>
+              <a:ext cx="1260451" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="de-DE" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝛼</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>(t)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+                <a:t> = 704x-33,638</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Textfeld 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9809600-76A2-EB59-7A9D-8DB16C66441E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11017997" y="4093327"/>
+              <a:ext cx="1260451" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>(t)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" baseline="0"/>
+                <a:t> = 704x-33,638</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -3859,8 +4008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC8613-F8E2-1145-BD13-3B66C37A7348}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="176" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
